--- a/crops/cec_summary.xlsx
+++ b/crops/cec_summary.xlsx
@@ -738,7 +738,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
+      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/crops/cec_summary.xlsx
+++ b/crops/cec_summary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
+      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/crops/cec_summary.xlsx
+++ b/crops/cec_summary.xlsx
@@ -252,9 +252,453 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="482">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -365,7 +809,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="482">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -385,6 +829,228 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -403,6 +1069,228 @@
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -735,10 +1623,10 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
